--- a/regionseng/5/infrastructure/infrastructure.xlsx
+++ b/regionseng/5/infrastructure/infrastructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -279,6 +285,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -589,19 +602,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="72.28515625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="19"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -616,8 +631,10 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7">
         <v>2011</v>
@@ -652,8 +669,14 @@
       <c r="L2" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -690,8 +713,14 @@
       <c r="L3" s="11">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="11">
+        <v>100</v>
+      </c>
+      <c r="N3" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,14 +730,14 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
+    <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -723,8 +752,10 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>2011</v>
@@ -759,8 +790,14 @@
       <c r="L7" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -797,8 +834,14 @@
       <c r="L8" s="13">
         <v>79.221891242113941</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M8" s="13">
+        <v>82.936243038531046</v>
+      </c>
+      <c r="N8" s="20">
+        <v>83.459099237632429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
@@ -813,22 +856,24 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -843,8 +888,10 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7">
         <v>2011</v>
@@ -879,8 +926,14 @@
       <c r="L13" s="7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="7">
+        <v>2022</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -917,8 +970,14 @@
       <c r="L14" s="14">
         <v>81.167278565897121</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="14">
+        <v>86.558764571418536</v>
+      </c>
+      <c r="N14" s="14">
+        <v>89.295958603952812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25">
       <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
@@ -955,8 +1014,14 @@
       <c r="L15" s="14">
         <v>15.801673336345033</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="14">
+        <v>11.406785554153995</v>
+      </c>
+      <c r="N15" s="14">
+        <v>9.0142489255390039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -993,8 +1058,14 @@
       <c r="L16" s="14">
         <v>0.58228720739495599</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="14">
+        <v>1.0297826953270484</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.50441441703241485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.25">
       <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
@@ -1031,8 +1102,14 @@
       <c r="L17" s="14">
         <v>1.412436465128651</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="14">
+        <v>1.0046671791004278</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1.1853780534757654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25">
       <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
@@ -1069,8 +1146,14 @@
       <c r="L18" s="15">
         <v>1.0363244252342423</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1168,10 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1097,7 +1182,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1107,11 +1192,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
